--- a/Resultados/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_10%_12m_0_LM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/enrico_abreu_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_10%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_96F113959E1F0082ED44F140EC8DE5F7016E62D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6AB66F-0599-41A4-B244-05D191E78FEA}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_96F113959E1F0082ED44F140EC8DE5F7016E62D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD4B586B-41B3-495B-AA05-DC83A1F85C3F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Geral" sheetId="33" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>ield_16ha_100ha_10%_12m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -6869,15 +6872,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86BA06B-11A8-4B4D-AF5E-BD9D57F5E401}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -6905,8 +6908,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -6943,7 +6949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>2.031536</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -7005,7 +7011,7 @@
         <v>2.1463679999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -7036,7 +7042,7 @@
         <v>2.2130879999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>2.2445599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -7098,7 +7104,7 @@
         <v>2.27488</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -7129,7 +7135,7 @@
         <v>2.281552</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>2.2928160000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -7191,7 +7197,7 @@
         <v>2.295728</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>2.290896</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -7253,7 +7259,7 @@
         <v>2.3063039999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -7284,7 +7290,7 @@
         <v>2.296656</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -7315,7 +7321,7 @@
         <v>2.286896</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -7346,7 +7352,7 @@
         <v>2.2789280000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -7377,7 +7383,7 @@
         <v>2.2574079999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -7408,7 +7414,7 @@
         <v>2.2546719999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -7439,7 +7445,7 @@
         <v>2.2453440000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -7470,7 +7476,7 @@
         <v>2.2259200000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -7501,7 +7507,7 @@
         <v>2.2241119999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -7532,7 +7538,7 @@
         <v>2.2014080000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -7563,7 +7569,7 @@
         <v>2.204272</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -7594,7 +7600,7 @@
         <v>2.1974719999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -7625,7 +7631,7 @@
         <v>2.1753119999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -7656,7 +7662,7 @@
         <v>2.1672799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -7687,7 +7693,7 @@
         <v>2.1485280000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -7718,7 +7724,7 @@
         <v>2.1297760000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -7749,7 +7755,7 @@
         <v>2.133248</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -7780,7 +7786,7 @@
         <v>2.1147679999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -7824,9 +7830,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7906,7 +7912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7986,7 +7992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8066,7 +8072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8306,7 +8312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8386,7 +8392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8466,7 +8472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8626,7 +8632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8706,7 +8712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8786,7 +8792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8866,7 +8872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8958,9 +8964,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9040,7 +9046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9120,7 +9126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9200,7 +9206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9280,7 +9286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9360,7 +9366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9440,7 +9446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9520,7 +9526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9600,7 +9606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9680,7 +9686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9760,7 +9766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9840,7 +9846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9920,7 +9926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10000,7 +10006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10080,7 +10086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10160,7 +10166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10240,7 +10246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10320,7 +10326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10400,7 +10406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10480,7 +10486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -10560,7 +10566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -10640,7 +10646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -10720,7 +10726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -10800,7 +10806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -10880,7 +10886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -10972,9 +10978,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11054,7 +11060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11146,9 +11152,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11228,7 +11234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11308,7 +11314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11400,9 +11406,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11482,7 +11488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11562,7 +11568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11642,7 +11648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11722,7 +11728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11802,7 +11808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11882,7 +11888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11962,7 +11968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12042,7 +12048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -12122,7 +12128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -12202,7 +12208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -12282,7 +12288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -12362,7 +12368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -12454,9 +12460,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12536,7 +12542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12616,7 +12622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12696,7 +12702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12776,7 +12782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12868,9 +12874,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12950,7 +12956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13030,7 +13036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13110,7 +13116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13190,7 +13196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13270,7 +13276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -13350,7 +13356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13430,7 +13436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13510,7 +13516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -13590,7 +13596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -13670,7 +13676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -13750,7 +13756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -13830,7 +13836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -13910,7 +13916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -13990,7 +13996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -14070,7 +14076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -14150,7 +14156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -14230,7 +14236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -14310,7 +14316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -14390,7 +14396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -14482,9 +14488,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14564,7 +14570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14644,7 +14650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14724,7 +14730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -14804,7 +14810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14884,7 +14890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -14964,7 +14970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -15044,7 +15050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -15136,9 +15142,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15218,7 +15224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15298,7 +15304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15378,7 +15384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15458,7 +15464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15538,7 +15544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15618,7 +15624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -15698,7 +15704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -15778,7 +15784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -15858,7 +15864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -15938,7 +15944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -16018,7 +16024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -16098,7 +16104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -16178,7 +16184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -16258,7 +16264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -16350,9 +16356,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16432,7 +16438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16524,9 +16530,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16606,7 +16612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16686,7 +16692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16766,7 +16772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16846,7 +16852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16926,7 +16932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17006,7 +17012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17086,7 +17092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17166,7 +17172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -17246,7 +17252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -17326,7 +17332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -17406,7 +17412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -17498,9 +17504,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17580,7 +17586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17660,7 +17666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17740,7 +17746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17832,9 +17838,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17914,7 +17920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18006,9 +18012,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18088,7 +18094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18168,7 +18174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18248,7 +18254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -18328,7 +18334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -18408,7 +18414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -18488,7 +18494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -18568,7 +18574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -18648,7 +18654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -18740,9 +18746,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18822,7 +18828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18914,9 +18920,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18996,7 +19002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -19076,7 +19082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19156,7 +19162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -19236,7 +19242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -19316,7 +19322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -19396,7 +19402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -19476,7 +19482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -19556,7 +19562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -19636,7 +19642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -19716,7 +19722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -19796,7 +19802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -19876,7 +19882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -19956,7 +19962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -20036,7 +20042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -20116,7 +20122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -20208,9 +20214,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20290,7 +20296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20370,7 +20376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20450,7 +20456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -20530,7 +20536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -20610,7 +20616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -20690,7 +20696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -20770,7 +20776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -20850,7 +20856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -20930,7 +20936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -21010,7 +21016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -21090,7 +21096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -21170,7 +21176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -21250,7 +21256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -21330,7 +21336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -21410,7 +21416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -21490,7 +21496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -21570,7 +21576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -21650,7 +21656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -21730,7 +21736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -21810,7 +21816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -21890,7 +21896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -21970,7 +21976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -22062,9 +22068,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22144,7 +22150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -22224,7 +22230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -22304,7 +22310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -22384,7 +22390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -22464,7 +22470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -22556,9 +22562,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22638,7 +22644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -22718,7 +22724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -22798,7 +22804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -22878,7 +22884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -22958,7 +22964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -23038,7 +23044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -23118,7 +23124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -23198,7 +23204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -23278,7 +23284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -23358,7 +23364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -23438,7 +23444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -23518,7 +23524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -23598,7 +23604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -23678,7 +23684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -23758,7 +23764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -23838,7 +23844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -23918,7 +23924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -23998,7 +24004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -24090,9 +24096,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24172,7 +24178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -24252,7 +24258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -24332,7 +24338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -24412,7 +24418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -24492,7 +24498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -24572,7 +24578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -24652,7 +24658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -24744,9 +24750,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24826,7 +24832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -24906,7 +24912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -24986,7 +24992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -25066,7 +25072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -25146,7 +25152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -25226,7 +25232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -25306,7 +25312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -25386,7 +25392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -25466,7 +25472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -25546,7 +25552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -25638,9 +25644,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25720,7 +25726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -25800,7 +25806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -25880,7 +25886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -25960,7 +25966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -26040,7 +26046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -26120,7 +26126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -26200,7 +26206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -26280,7 +26286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -26360,7 +26366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -26440,7 +26446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -26520,7 +26526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -26600,7 +26606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -26680,7 +26686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -26760,7 +26766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -26840,7 +26846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -26920,7 +26926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -27000,7 +27006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -27080,7 +27086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -27160,7 +27166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -27240,7 +27246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -27332,9 +27338,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27414,7 +27420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -27494,7 +27500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -27574,7 +27580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -27666,9 +27672,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27748,7 +27754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -27828,7 +27834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -27908,7 +27914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -27988,7 +27994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -28068,7 +28074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -28148,7 +28154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -28228,7 +28234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -28308,7 +28314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -28388,7 +28394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -28468,7 +28474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -28548,7 +28554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -28628,7 +28634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -28708,7 +28714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -28788,7 +28794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -28868,7 +28874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -28948,7 +28954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -29028,7 +29034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -29108,7 +29114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -29188,7 +29194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -29268,7 +29274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -29348,7 +29354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -29428,7 +29434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
@@ -29508,7 +29514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -29588,7 +29594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -29668,7 +29674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13</v>
       </c>
@@ -29748,7 +29754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14</v>
       </c>
@@ -29828,7 +29834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15</v>
       </c>
@@ -29908,7 +29914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>16</v>
       </c>
@@ -29988,7 +29994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>17</v>
       </c>
@@ -30068,7 +30074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18</v>
       </c>
@@ -30148,7 +30154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19</v>
       </c>
@@ -30228,7 +30234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -30308,7 +30314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -30388,7 +30394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -30468,7 +30474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -30548,7 +30554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -30628,7 +30634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -30708,7 +30714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -30788,7 +30794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -30868,7 +30874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
@@ -30948,7 +30954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -31028,7 +31034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -31108,7 +31114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
@@ -31188,7 +31194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -31268,7 +31274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -31348,7 +31354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13</v>
       </c>
@@ -31428,7 +31434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14</v>
       </c>
@@ -31508,7 +31514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15</v>
       </c>
@@ -31588,7 +31594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -31668,7 +31674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -31748,7 +31754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -31828,7 +31834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -31908,7 +31914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -31988,7 +31994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -32068,7 +32074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -32148,7 +32154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -32228,7 +32234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -32308,7 +32314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -32388,7 +32394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -32468,7 +32474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -32548,7 +32554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -32628,7 +32634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -32708,7 +32714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -32788,7 +32794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -32868,7 +32874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -32948,7 +32954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -33028,7 +33034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -33108,7 +33114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -33188,7 +33194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -33268,7 +33274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -33348,7 +33354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -33428,7 +33434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
@@ -33508,7 +33514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7</v>
       </c>
@@ -33588,7 +33594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8</v>
       </c>
@@ -33668,7 +33674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9</v>
       </c>
@@ -33748,7 +33754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10</v>
       </c>
@@ -33828,7 +33834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11</v>
       </c>
@@ -33908,7 +33914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12</v>
       </c>
@@ -33988,7 +33994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -34068,7 +34074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -34148,7 +34154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -34228,7 +34234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -34308,7 +34314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -34388,7 +34394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5</v>
       </c>
@@ -34468,7 +34474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -34548,7 +34554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>7</v>
       </c>
@@ -34628,7 +34634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8</v>
       </c>
@@ -34708,7 +34714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9</v>
       </c>
@@ -34788,7 +34794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10</v>
       </c>
@@ -34868,7 +34874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>11</v>
       </c>
@@ -34948,7 +34954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>12</v>
       </c>
@@ -35028,7 +35034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>13</v>
       </c>
@@ -35108,7 +35114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14</v>
       </c>
@@ -35188,7 +35194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>15</v>
       </c>
@@ -35268,7 +35274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>16</v>
       </c>
@@ -35348,7 +35354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>17</v>
       </c>
@@ -35428,7 +35434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>18</v>
       </c>
@@ -35508,7 +35514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>19</v>
       </c>
@@ -35588,7 +35594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20</v>
       </c>
@@ -35668,7 +35674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>21</v>
       </c>
@@ -35748,7 +35754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>22</v>
       </c>
@@ -35828,7 +35834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>23</v>
       </c>
@@ -35908,7 +35914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -35988,7 +35994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -36068,7 +36074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -36148,7 +36154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0</v>
       </c>
@@ -36228,7 +36234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -36308,7 +36314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -36388,7 +36394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -36468,7 +36474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -36548,7 +36554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -36628,7 +36634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
@@ -36708,7 +36714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7</v>
       </c>
@@ -36788,7 +36794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>8</v>
       </c>
@@ -36868,7 +36874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>9</v>
       </c>
@@ -36948,7 +36954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10</v>
       </c>
@@ -37028,7 +37034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>11</v>
       </c>
@@ -37108,7 +37114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0</v>
       </c>
@@ -37188,7 +37194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -37268,7 +37274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -37348,7 +37354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -37428,7 +37434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0</v>
       </c>
@@ -37508,7 +37514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -37588,7 +37594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -37668,7 +37674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -37748,7 +37754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -37828,7 +37834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -37908,7 +37914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -37988,7 +37994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7</v>
       </c>
@@ -38068,7 +38074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8</v>
       </c>
@@ -38148,7 +38154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>9</v>
       </c>
@@ -38228,7 +38234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>10</v>
       </c>
@@ -38308,7 +38314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>11</v>
       </c>
@@ -38388,7 +38394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>12</v>
       </c>
@@ -38468,7 +38474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>13</v>
       </c>
@@ -38548,7 +38554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14</v>
       </c>
@@ -38628,7 +38634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>15</v>
       </c>
@@ -38708,7 +38714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>16</v>
       </c>
@@ -38788,7 +38794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>17</v>
       </c>
@@ -38868,7 +38874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>18</v>
       </c>
@@ -38948,7 +38954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0</v>
       </c>
@@ -39028,7 +39034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -39108,7 +39114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -39188,7 +39194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -39268,7 +39274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -39348,7 +39354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -39428,7 +39434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -39508,7 +39514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0</v>
       </c>
@@ -39588,7 +39594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -39668,7 +39674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2</v>
       </c>
@@ -39748,7 +39754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -39828,7 +39834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4</v>
       </c>
@@ -39908,7 +39914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>5</v>
       </c>
@@ -39988,7 +39994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6</v>
       </c>
@@ -40068,7 +40074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7</v>
       </c>
@@ -40148,7 +40154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8</v>
       </c>
@@ -40228,7 +40234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>9</v>
       </c>
@@ -40308,7 +40314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>10</v>
       </c>
@@ -40388,7 +40394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>11</v>
       </c>
@@ -40468,7 +40474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>12</v>
       </c>
@@ -40548,7 +40554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>13</v>
       </c>
@@ -40628,7 +40634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>0</v>
       </c>
@@ -40708,7 +40714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0</v>
       </c>
@@ -40788,7 +40794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -40868,7 +40874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2</v>
       </c>
@@ -40948,7 +40954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>0</v>
       </c>
@@ -41028,7 +41034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0</v>
       </c>
@@ -41108,7 +41114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -41188,7 +41194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2</v>
       </c>
@@ -41268,7 +41274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
@@ -41348,7 +41354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4</v>
       </c>
@@ -41428,7 +41434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
@@ -41508,7 +41514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6</v>
       </c>
@@ -41588,7 +41594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7</v>
       </c>
@@ -41668,7 +41674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>0</v>
       </c>
@@ -41748,7 +41754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0</v>
       </c>
@@ -41828,7 +41834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -41908,7 +41914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2</v>
       </c>
@@ -41988,7 +41994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -42068,7 +42074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4</v>
       </c>
@@ -42148,7 +42154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5</v>
       </c>
@@ -42228,7 +42234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>6</v>
       </c>
@@ -42308,7 +42314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>7</v>
       </c>
@@ -42388,7 +42394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
@@ -42468,7 +42474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>9</v>
       </c>
@@ -42548,7 +42554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>10</v>
       </c>
@@ -42628,7 +42634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>11</v>
       </c>
@@ -42708,7 +42714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>12</v>
       </c>
@@ -42788,7 +42794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>13</v>
       </c>
@@ -42868,7 +42874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>14</v>
       </c>
@@ -42948,7 +42954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0</v>
       </c>
@@ -43028,7 +43034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -43108,7 +43114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2</v>
       </c>
@@ -43188,7 +43194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3</v>
       </c>
@@ -43268,7 +43274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>4</v>
       </c>
@@ -43348,7 +43354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
@@ -43428,7 +43434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>6</v>
       </c>
@@ -43508,7 +43514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>7</v>
       </c>
@@ -43588,7 +43594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>8</v>
       </c>
@@ -43668,7 +43674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>9</v>
       </c>
@@ -43748,7 +43754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10</v>
       </c>
@@ -43828,7 +43834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>11</v>
       </c>
@@ -43908,7 +43914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>12</v>
       </c>
@@ -43988,7 +43994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>13</v>
       </c>
@@ -44068,7 +44074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>14</v>
       </c>
@@ -44148,7 +44154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>15</v>
       </c>
@@ -44228,7 +44234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>16</v>
       </c>
@@ -44308,7 +44314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>17</v>
       </c>
@@ -44388,7 +44394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>18</v>
       </c>
@@ -44468,7 +44474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>19</v>
       </c>
@@ -44548,7 +44554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>20</v>
       </c>
@@ -44628,7 +44634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>21</v>
       </c>
@@ -44708,7 +44714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>0</v>
       </c>
@@ -44788,7 +44794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -44868,7 +44874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2</v>
       </c>
@@ -44948,7 +44954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>3</v>
       </c>
@@ -45028,7 +45034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4</v>
       </c>
@@ -45108,7 +45114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>0</v>
       </c>
@@ -45188,7 +45194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -45268,7 +45274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2</v>
       </c>
@@ -45348,7 +45354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>3</v>
       </c>
@@ -45428,7 +45434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4</v>
       </c>
@@ -45508,7 +45514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>5</v>
       </c>
@@ -45588,7 +45594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>6</v>
       </c>
@@ -45668,7 +45674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>7</v>
       </c>
@@ -45748,7 +45754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>8</v>
       </c>
@@ -45828,7 +45834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>9</v>
       </c>
@@ -45908,7 +45914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>10</v>
       </c>
@@ -45988,7 +45994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>11</v>
       </c>
@@ -46068,7 +46074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>12</v>
       </c>
@@ -46148,7 +46154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13</v>
       </c>
@@ -46228,7 +46234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>14</v>
       </c>
@@ -46308,7 +46314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>15</v>
       </c>
@@ -46388,7 +46394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>16</v>
       </c>
@@ -46468,7 +46474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>17</v>
       </c>
@@ -46548,7 +46554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>0</v>
       </c>
@@ -46628,7 +46634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -46708,7 +46714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2</v>
       </c>
@@ -46788,7 +46794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>3</v>
       </c>
@@ -46868,7 +46874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4</v>
       </c>
@@ -46948,7 +46954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>5</v>
       </c>
@@ -47028,7 +47034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>6</v>
       </c>
@@ -47108,7 +47114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>0</v>
       </c>
@@ -47188,7 +47194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -47268,7 +47274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2</v>
       </c>
@@ -47348,7 +47354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>3</v>
       </c>
@@ -47428,7 +47434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4</v>
       </c>
@@ -47508,7 +47514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>5</v>
       </c>
@@ -47588,7 +47594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>6</v>
       </c>
@@ -47668,7 +47674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>7</v>
       </c>
@@ -47748,7 +47754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>8</v>
       </c>
@@ -47828,7 +47834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>9</v>
       </c>
@@ -47908,7 +47914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0</v>
       </c>
@@ -47988,7 +47994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -48068,7 +48074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2</v>
       </c>
@@ -48160,24 +48166,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -48188,7 +48194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 1, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48202,7 +48208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 2, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48216,7 +48222,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 3, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48230,7 +48236,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 4, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48244,7 +48250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 5, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48258,7 +48264,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 6, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48272,7 +48278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 7, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48286,7 +48292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 8, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48300,7 +48306,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 9, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48314,7 +48320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 10, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48328,7 +48334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 11, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48342,7 +48348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 12, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48356,7 +48362,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 13, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48370,7 +48376,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 14, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48384,7 +48390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 15, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48398,7 +48404,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 16, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48412,7 +48418,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 17, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48426,7 +48432,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 18, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48440,7 +48446,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 19, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48454,7 +48460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 20, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48468,7 +48474,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 21, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48482,7 +48488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 22, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48496,7 +48502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 23, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48510,7 +48516,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 24, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48524,7 +48530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 25, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48538,7 +48544,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 26, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48552,7 +48558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 27, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48566,7 +48572,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 28, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48580,7 +48586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 29, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48594,7 +48600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 30, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48608,7 +48614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 31, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48622,7 +48628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 32, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48636,7 +48642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 33, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48650,7 +48656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 34, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48664,7 +48670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 35, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48678,7 +48684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 36, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48692,7 +48698,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 37, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48706,7 +48712,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 38, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48720,7 +48726,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 39, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48734,7 +48740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 40, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48748,7 +48754,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 41, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48762,7 +48768,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 42, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48776,7 +48782,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 43, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48790,7 +48796,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 44, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48804,7 +48810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 45, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48818,7 +48824,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 46, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48832,7 +48838,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 47, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48846,7 +48852,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 48, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48860,7 +48866,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 49, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48874,7 +48880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 50, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48888,7 +48894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 51, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48902,7 +48908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 52, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48916,7 +48922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 53, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48930,7 +48936,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 54, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48944,7 +48950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 55, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48958,7 +48964,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 56, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48972,7 +48978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 57, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -48986,7 +48992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 58, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49000,7 +49006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 59, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49014,7 +49020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 60, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49028,7 +49034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 61, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49042,7 +49048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 62, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49056,7 +49062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 63, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49070,7 +49076,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 64, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49084,7 +49090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 65, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49098,7 +49104,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 66, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49112,7 +49118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 67, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49126,7 +49132,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 68, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49140,7 +49146,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 69, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49154,7 +49160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 70, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49168,7 +49174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 71, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49182,7 +49188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 72, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49196,7 +49202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 73, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49210,7 +49216,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 74, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49224,7 +49230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 75, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49238,7 +49244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 76, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49252,7 +49258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 77, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49266,7 +49272,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 78, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49280,7 +49286,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 79, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49294,7 +49300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 80, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49308,7 +49314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 81, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49322,7 +49328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 82, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49336,7 +49342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 83, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49350,7 +49356,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 84, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49364,7 +49370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 85, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49378,7 +49384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 86, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49392,7 +49398,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 87, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49406,7 +49412,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 88, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49420,7 +49426,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 89, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49434,7 +49440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 90, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49448,7 +49454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 91, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49462,7 +49468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 92, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49476,7 +49482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 93, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49490,7 +49496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 94, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49504,7 +49510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 95, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49518,7 +49524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 96, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49532,7 +49538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 97, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49546,7 +49552,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 98, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49560,7 +49566,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 99, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49574,7 +49580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 100, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49588,7 +49594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 101, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49602,7 +49608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 102, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49616,7 +49622,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 103, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49630,7 +49636,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 104, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49644,7 +49650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 105, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49658,7 +49664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 106, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49672,7 +49678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 107, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49686,7 +49692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 108, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49700,7 +49706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 109, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49714,7 +49720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 110, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49728,7 +49734,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 111, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49742,7 +49748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 112, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49756,7 +49762,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 113, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49770,7 +49776,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 114, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49784,7 +49790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 115, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49798,7 +49804,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 116, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49812,7 +49818,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 117, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49826,7 +49832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 118, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49840,7 +49846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 119, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49854,7 +49860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 120, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49868,7 +49874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 121, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49882,7 +49888,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 122, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49896,7 +49902,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 123, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49910,7 +49916,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 124, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49924,7 +49930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 125, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49938,7 +49944,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 126, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49952,7 +49958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 127, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49966,7 +49972,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 128, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49980,7 +49986,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 129, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -49994,7 +50000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 130, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50008,7 +50014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 131, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50022,7 +50028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 132, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50036,7 +50042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 133, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50050,7 +50056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 134, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50064,7 +50070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 135, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50078,7 +50084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 136, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50092,7 +50098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 137, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50106,7 +50112,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 138, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50120,7 +50126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 139, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50134,7 +50140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 140, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50148,7 +50154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 141, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50162,7 +50168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 142, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50176,7 +50182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 143, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50190,7 +50196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 144, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50204,7 +50210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 145, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50218,7 +50224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 146, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50232,7 +50238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 147, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50246,7 +50252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 148, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50260,7 +50266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 149, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50274,7 +50280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 150, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50288,7 +50294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 151, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50302,7 +50308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 152, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50316,7 +50322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 153, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50330,7 +50336,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 154, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50344,7 +50350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 155, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50358,7 +50364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 156, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50372,7 +50378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 157, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50386,7 +50392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 158, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50400,7 +50406,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 159, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50414,7 +50420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 160, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50428,7 +50434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 161, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50442,7 +50448,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 162, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50456,7 +50462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 163, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50470,7 +50476,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 164, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50484,7 +50490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 165, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50498,7 +50504,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 166, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50512,7 +50518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 167, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50526,7 +50532,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 168, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50540,7 +50546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 169, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50554,7 +50560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 170, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50568,7 +50574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 171, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50582,7 +50588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 172, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50596,7 +50602,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 173, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50610,7 +50616,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 174, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50624,7 +50630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 175, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50638,7 +50644,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 176, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50652,7 +50658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 177, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50666,7 +50672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 178, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50680,7 +50686,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 179, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50694,7 +50700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 180, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50708,7 +50714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 181, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50722,7 +50728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 182, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50736,7 +50742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 183, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50750,7 +50756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 184, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50764,7 +50770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 185, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50778,7 +50784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 186, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50792,7 +50798,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 187, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50806,7 +50812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 188, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50820,7 +50826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 189, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50834,7 +50840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 190, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50848,7 +50854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 191, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50862,7 +50868,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 192, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50876,7 +50882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 193, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50890,7 +50896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 194, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50904,7 +50910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 195, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50918,7 +50924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 196, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50932,7 +50938,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 197, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50946,7 +50952,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 198, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50960,7 +50966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 199, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50974,7 +50980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 200, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -50988,7 +50994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 201, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51002,7 +51008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 202, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51016,7 +51022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 203, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51030,7 +51036,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 204, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51044,7 +51050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 205, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51058,7 +51064,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 206, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51072,7 +51078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 207, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51086,7 +51092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 208, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51100,7 +51106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 209, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51114,7 +51120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 210, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51128,7 +51134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 211, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51142,7 +51148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 212, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51156,7 +51162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 213, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51170,7 +51176,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 214, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51184,7 +51190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 215, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51198,7 +51204,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 216, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51212,7 +51218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 217, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51226,7 +51232,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 218, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51240,7 +51246,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 219, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51254,7 +51260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 220, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51268,7 +51274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 221, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51282,7 +51288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 222, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51296,7 +51302,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 223, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51310,7 +51316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 224, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51324,7 +51330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 225, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51338,7 +51344,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 226, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51352,7 +51358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 227, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51366,7 +51372,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 228, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51380,7 +51386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 229, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51394,7 +51400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 230, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51408,7 +51414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 231, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51422,7 +51428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 232, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51436,7 +51442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 233, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51450,7 +51456,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 234, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51464,7 +51470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 235, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51478,7 +51484,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 236, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51492,7 +51498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 237, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51506,7 +51512,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 238, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51520,7 +51526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 239, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51534,7 +51540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 240, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51548,7 +51554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 241, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51562,7 +51568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 242, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51576,7 +51582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 243, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51590,7 +51596,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 244, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51604,7 +51610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 245, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51618,7 +51624,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 246, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51632,7 +51638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 247, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51646,7 +51652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 248, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51660,7 +51666,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 249, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51674,7 +51680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 250, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51688,7 +51694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 251, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51702,7 +51708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 252, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51716,7 +51722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 253, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51730,7 +51736,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 254, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51744,7 +51750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$256, 255, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -51783,134 +51789,134 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -51927,9 +51933,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -52009,7 +52015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -52101,9 +52107,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -52183,7 +52189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -52263,7 +52269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -52343,7 +52349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -52423,7 +52429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -52503,7 +52509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -52583,7 +52589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -52663,7 +52669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -52743,7 +52749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -52823,7 +52829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -52903,7 +52909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -52983,7 +52989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -53063,7 +53069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -53143,7 +53149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -53223,7 +53229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -53303,7 +53309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -53383,7 +53389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -53475,9 +53481,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -53557,7 +53563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -53649,9 +53655,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -53731,7 +53737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -53823,9 +53829,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -53905,7 +53911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -53985,7 +53991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -54065,7 +54071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -54145,7 +54151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -54225,7 +54231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -54305,7 +54311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -54397,9 +54403,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -54479,7 +54485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -54559,7 +54565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -54639,7 +54645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -54719,7 +54725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -54799,7 +54805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -54879,7 +54885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -54959,7 +54965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -55039,7 +55045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -55119,7 +55125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>

--- a/Resultados/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_10%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_96F113959E1F0082ED44F140EC8DE5F7016E62D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6AB66F-0599-41A4-B244-05D191E78FEA}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_96F113959E1F0082ED44F140EC8DE5F7016E62D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0AF90A6-C164-4BD4-8959-CEA3E2E19B2C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>ield_16ha_100ha_10%_12m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -6869,7 +6872,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86BA06B-11A8-4B4D-AF5E-BD9D57F5E401}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -6877,7 +6880,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -6905,8 +6908,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -6943,7 +6949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>2.031536</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -7005,7 +7011,7 @@
         <v>2.1463679999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -7036,7 +7042,7 @@
         <v>2.2130879999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>2.2445599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -7098,7 +7104,7 @@
         <v>2.27488</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -7129,7 +7135,7 @@
         <v>2.281552</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>2.2928160000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -7191,7 +7197,7 @@
         <v>2.295728</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>2.290896</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -7253,7 +7259,7 @@
         <v>2.3063039999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -7284,7 +7290,7 @@
         <v>2.296656</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -7315,7 +7321,7 @@
         <v>2.286896</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -7346,7 +7352,7 @@
         <v>2.2789280000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
